--- a/Excel-worksheets/Lecture17_PCA.xlsx
+++ b/Excel-worksheets/Lecture17_PCA.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,8 +35,13 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00505050"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -97,6 +102,12 @@
         <bgColor rgb="0099FF99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F8FF"/>
+        <bgColor rgb="00F0F8FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -144,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +226,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -781,7 +795,13 @@
     <col width="10" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>[Description] Principal Component Analysis (PCA) - unsupervised dimensionality reduction by finding directions of maximum variance.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -808,7 +828,6 @@
       <c r="T2" s="4" t="n"/>
       <c r="U2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -816,7 +835,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="3" t="inlineStr">
         <is>
@@ -833,7 +851,6 @@
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="5" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="6" t="inlineStr">
         <is>
@@ -855,8 +872,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
     <row r="13">
       <c r="B13" s="7" t="inlineStr">
         <is>
@@ -873,7 +888,6 @@
       <c r="J13" s="4" t="n"/>
       <c r="K13" s="5" t="n"/>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="8" t="inlineStr">
         <is>
@@ -916,8 +930,6 @@
         </is>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22"/>
     <row r="23">
       <c r="B23" s="6" t="inlineStr">
         <is>
@@ -934,7 +946,6 @@
       <c r="J23" s="4" t="n"/>
       <c r="K23" s="5" t="n"/>
     </row>
-    <row r="24"/>
     <row r="25">
       <c r="B25" s="9" t="inlineStr">
         <is>
@@ -970,7 +981,6 @@
         </is>
       </c>
     </row>
-    <row r="30"/>
     <row r="31">
       <c r="B31" s="2" t="inlineStr">
         <is>
@@ -979,10 +989,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B6:K6"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B6:K6"/>
     <mergeCell ref="B2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1016,7 +1027,13 @@
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>[Description] Original high-dimensional data: Each row is a sample, each column is a feature.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="6" t="inlineStr">
         <is>
@@ -1036,7 +1053,6 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -1290,8 +1306,6 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="7" t="inlineStr">
         <is>
@@ -1306,7 +1320,6 @@
       <c r="H15" s="4" t="n"/>
       <c r="I15" s="5" t="n"/>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="B17" s="7" t="inlineStr">
         <is>
@@ -1354,7 +1367,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B15:I15"/>
   </mergeCells>
@@ -1389,7 +1403,13 @@
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>[Description] Standardize features (zero mean, unit variance) so all features contribute equally to PCA.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="7" t="inlineStr">
         <is>
@@ -1409,7 +1429,6 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -1417,8 +1436,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
     <row r="7">
       <c r="B7" s="14" t="inlineStr">
         <is>
@@ -1436,7 +1453,6 @@
       <c r="K7" s="4" t="n"/>
       <c r="L7" s="5" t="n"/>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -1451,8 +1467,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
     <row r="13">
       <c r="B13" s="7" t="inlineStr">
         <is>
@@ -1470,7 +1484,6 @@
       <c r="K13" s="4" t="n"/>
       <c r="L13" s="5" t="n"/>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
@@ -1724,8 +1737,6 @@
         <v>-0.4385</v>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
     <row r="26">
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -1734,7 +1745,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B13:L13"/>
@@ -1770,7 +1782,13 @@
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>[Description] Correlation/Covariance matrix captures relationships between features. PCA finds its eigenvectors.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="14" t="inlineStr">
         <is>
@@ -1790,7 +1808,6 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -1798,8 +1815,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
     <row r="7">
       <c r="B7" s="14" t="inlineStr">
         <is>
@@ -1814,7 +1829,6 @@
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="5" t="n"/>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="B9" s="11" t="inlineStr"/>
       <c r="C9" s="6" t="inlineStr">
@@ -1953,8 +1967,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15"/>
-    <row r="16"/>
     <row r="17">
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -1970,8 +1982,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B7:I7"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2005,7 +2018,13 @@
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>[Description] Eigendecomposition: Eigenvectors are principal components, eigenvalues indicate variance explained.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -2025,7 +2044,6 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -2040,8 +2058,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="3" t="inlineStr">
         <is>
@@ -2059,7 +2075,6 @@
       <c r="K8" s="4" t="n"/>
       <c r="L8" s="5" t="n"/>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
@@ -2192,8 +2207,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
-    <row r="17"/>
     <row r="18">
       <c r="B18" s="6" t="inlineStr">
         <is>
@@ -2211,7 +2224,6 @@
       <c r="K18" s="4" t="n"/>
       <c r="L18" s="5" t="n"/>
     </row>
-    <row r="19"/>
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
@@ -2294,8 +2306,6 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="8" t="inlineStr">
         <is>
@@ -2304,7 +2314,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B8:L8"/>
@@ -2343,7 +2354,13 @@
     <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>[Description] Project data onto top-k principal components to get lower-dimensional representation.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="7" t="inlineStr">
         <is>
@@ -2363,7 +2380,6 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -2378,8 +2394,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="14" t="inlineStr">
         <is>
@@ -2397,7 +2411,6 @@
       <c r="K8" s="4" t="n"/>
       <c r="L8" s="5" t="n"/>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
@@ -2553,8 +2566,6 @@
         <v>1.2986</v>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
     <row r="19">
       <c r="B19" s="3" t="inlineStr">
         <is>
@@ -2569,7 +2580,6 @@
       <c r="H19" s="4" t="n"/>
       <c r="I19" s="5" t="n"/>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="B21" s="1" t="inlineStr">
         <is>
@@ -2737,7 +2747,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B8:L8"/>
@@ -2769,7 +2780,13 @@
     <col width="10" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>[Description] Visualize projected data: 2D scatter plot shows how well principal components separate the data.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -2789,7 +2806,6 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -2804,8 +2820,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="7" t="inlineStr">
         <is>
@@ -2818,7 +2832,6 @@
       <c r="F8" s="4" t="n"/>
       <c r="G8" s="5" t="n"/>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
@@ -2985,8 +2998,6 @@
         <v>-0.7064</v>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
     <row r="21">
       <c r="B21" s="23" t="inlineStr">
         <is>
@@ -3038,7 +3049,6 @@
         <v>1.5803</v>
       </c>
     </row>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="24" t="inlineStr">
         <is>
@@ -3090,9 +3100,6 @@
         <v>-0.7064</v>
       </c>
     </row>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
@@ -3122,8 +3129,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3161,7 +3169,13 @@
     <col width="12" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>[Description] Reference solutions for self-checking your calculations.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -3181,7 +3195,6 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="6" t="inlineStr">
         <is>
@@ -3203,7 +3216,6 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="3" t="inlineStr">
         <is>
@@ -3225,7 +3237,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="7" t="inlineStr">
         <is>
@@ -3289,7 +3300,6 @@
         </is>
       </c>
     </row>
-    <row r="21"/>
     <row r="22">
       <c r="B22" s="14" t="inlineStr">
         <is>
@@ -3305,7 +3315,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
